--- a/Document/PssS系统开发文档.xlsx
+++ b/Document/PssS系统开发文档.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,10 @@
   </si>
   <si>
     <t>采购记录查询UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购记录编辑UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,10 +370,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,15 +718,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -751,7 +758,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -777,7 +784,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
@@ -798,7 +805,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -824,7 +831,7 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
@@ -845,7 +852,7 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -869,7 +876,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
@@ -893,7 +900,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
@@ -914,7 +921,7 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
@@ -935,7 +942,7 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
@@ -957,7 +964,7 @@
     </row>
     <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
@@ -979,7 +986,7 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -997,7 +1004,7 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1012,7 +1019,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
@@ -1024,7 +1031,7 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1039,7 +1046,7 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1061,7 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1069,7 +1076,7 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1084,7 +1091,7 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1099,7 +1106,7 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1114,7 +1121,7 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1130,7 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1132,7 +1139,7 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1141,14 +1148,14 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
@@ -1160,7 +1167,7 @@
       <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1169,7 +1176,7 @@
       <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
@@ -1178,7 +1185,7 @@
       <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
@@ -1187,7 +1194,7 @@
       <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="6"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1481,10 +1488,10 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1502,21 +1509,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1551,22 +1558,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
         <v>30</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="2">
@@ -1580,12 +1587,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="2">
         <v>2</v>
       </c>
@@ -1597,12 +1604,12 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="2">
         <v>3</v>
       </c>
@@ -1614,12 +1621,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="2">
         <v>4</v>
       </c>
@@ -1657,22 +1664,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>30</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="2">
@@ -1686,12 +1693,12 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="5">
         <v>7</v>
       </c>
@@ -1703,12 +1710,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="5">
         <v>8</v>
       </c>
@@ -1720,12 +1727,12 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="5">
         <v>9</v>
       </c>
@@ -1737,12 +1744,12 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5">
         <v>10</v>
       </c>
@@ -1754,22 +1761,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>30</v>
       </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="3">
         <v>11</v>
       </c>
@@ -1781,12 +1788,12 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3">
         <v>12</v>
       </c>
@@ -1797,27 +1804,53 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="15" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C15" s="7">
         <v>30</v>
       </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1836,8 +1869,14 @@
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="G17" s="6">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -1854,7 +1893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -1872,7 +1911,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="A8:A12"/>
@@ -1893,6 +1932,12 @@
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
